--- a/Uber_Minicase/Uber_Dispatching_Data.xlsx
+++ b/Uber_Minicase/Uber_Dispatching_Data.xlsx
@@ -8,181 +8,182 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Dropbox\Academic\INSEAD\Teaching\2021\ARM_FBL_March\Cases\Uber Minicase\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B785BAA-3871-4148-BCF4-CA55C6B89FE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C6ABA0-DAF0-41FA-92ED-6614665A1F4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38890" yWindow="1020" windowWidth="34850" windowHeight="19360" tabRatio="850" xr2:uid="{33A83AC2-AE54-4FD9-B8E6-EA6E160DC162}"/>
+    <workbookView xWindow="41900" yWindow="1400" windowWidth="34850" windowHeight="19360" tabRatio="850" activeTab="1" xr2:uid="{33A83AC2-AE54-4FD9-B8E6-EA6E160DC162}"/>
   </bookViews>
   <sheets>
     <sheet name="Drivers" sheetId="45" r:id="rId1"/>
-    <sheet name="Riders" sheetId="46" r:id="rId2"/>
-    <sheet name="Q6_data" sheetId="42" r:id="rId3"/>
-    <sheet name="Q7_data" sheetId="43" r:id="rId4"/>
+    <sheet name="Josephines_Match" sheetId="47" r:id="rId2"/>
+    <sheet name="Riders" sheetId="46" r:id="rId3"/>
+    <sheet name="Q6_data" sheetId="42" r:id="rId4"/>
+    <sheet name="Q7_data" sheetId="43" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">Q6_data!#REF!,Q6_data!#REF!</definedName>
-    <definedName name="solver_adj" localSheetId="3" hidden="1">Q7_data!#REF!</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">Q6_data!#REF!,Q6_data!#REF!</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">Q7_data!#REF!</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_ibd" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_ibd" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs0" localSheetId="3" hidden="1">Q7_data!#REF!</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">Q6_data!#REF!</definedName>
-    <definedName name="solver_lhs1" localSheetId="3" hidden="1">Q7_data!#REF!</definedName>
-    <definedName name="solver_lhs2" localSheetId="2" hidden="1">Q6_data!#REF!</definedName>
-    <definedName name="solver_lhs2" localSheetId="3" hidden="1">Q7_data!#REF!</definedName>
-    <definedName name="solver_lhs3" localSheetId="2" hidden="1">Q6_data!#REF!</definedName>
-    <definedName name="solver_lhs3" localSheetId="3" hidden="1">Q7_data!#REF!</definedName>
-    <definedName name="solver_lhs4" localSheetId="2" hidden="1">Q6_data!#REF!</definedName>
-    <definedName name="solver_lhs4" localSheetId="3" hidden="1">Q7_data!#REF!</definedName>
-    <definedName name="solver_lhs5" localSheetId="2" hidden="1">Q6_data!#REF!</definedName>
-    <definedName name="solver_lhs5" localSheetId="3" hidden="1">Q7_data!#REF!</definedName>
-    <definedName name="solver_lhs6" localSheetId="2" hidden="1">Q6_data!#REF!</definedName>
-    <definedName name="solver_lhs6" localSheetId="3" hidden="1">Q7_data!#REF!</definedName>
-    <definedName name="solver_lhs7" localSheetId="3" hidden="1">Q7_data!#REF!</definedName>
-    <definedName name="solver_lhs8" localSheetId="3" hidden="1">Q7_data!#REF!</definedName>
-    <definedName name="solver_lin" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_lva" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_lhs0" localSheetId="4" hidden="1">Q7_data!#REF!</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">Q6_data!#REF!</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">Q7_data!#REF!</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">Q6_data!#REF!</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">Q7_data!#REF!</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">Q6_data!#REF!</definedName>
+    <definedName name="solver_lhs3" localSheetId="4" hidden="1">Q7_data!#REF!</definedName>
+    <definedName name="solver_lhs4" localSheetId="3" hidden="1">Q6_data!#REF!</definedName>
+    <definedName name="solver_lhs4" localSheetId="4" hidden="1">Q7_data!#REF!</definedName>
+    <definedName name="solver_lhs5" localSheetId="3" hidden="1">Q6_data!#REF!</definedName>
+    <definedName name="solver_lhs5" localSheetId="4" hidden="1">Q7_data!#REF!</definedName>
+    <definedName name="solver_lhs6" localSheetId="3" hidden="1">Q6_data!#REF!</definedName>
+    <definedName name="solver_lhs6" localSheetId="4" hidden="1">Q7_data!#REF!</definedName>
+    <definedName name="solver_lhs7" localSheetId="4" hidden="1">Q7_data!#REF!</definedName>
+    <definedName name="solver_lhs8" localSheetId="4" hidden="1">Q7_data!#REF!</definedName>
+    <definedName name="solver_lin" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_lva" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_num" localSheetId="2" hidden="1">6</definedName>
-    <definedName name="solver_num" localSheetId="3" hidden="1">4</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">6</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_ofx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_ofx" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Drivers!#REF!</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">Q6_data!#REF!</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">Q7_data!#REF!</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">Riders!#REF!</definedName>
-    <definedName name="solver_piv" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">Q6_data!#REF!</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">Q7_data!#REF!</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">Riders!#REF!</definedName>
+    <definedName name="solver_piv" localSheetId="4" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="2" hidden="1">0.0001</definedName>
-    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
-    <definedName name="solver_pro" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_pro" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_red" localSheetId="3" hidden="1">0.000001</definedName>
-    <definedName name="solver_rel0" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="2" hidden="1">5</definedName>
-    <definedName name="solver_rel1" localSheetId="3" hidden="1">4</definedName>
-    <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_red" localSheetId="4" hidden="1">0.000001</definedName>
+    <definedName name="solver_rel0" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">5</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">4</definedName>
     <definedName name="solver_rel2" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel3" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel4" localSheetId="2" hidden="1">5</definedName>
-    <definedName name="solver_rel4" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel5" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="3" hidden="1">5</definedName>
+    <definedName name="solver_rel4" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rel6" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rel6" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel7" localSheetId="3" hidden="1">4</definedName>
-    <definedName name="solver_rel8" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_reo" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rep" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rhs0" localSheetId="3" hidden="1">Q7_data!#REF!</definedName>
-    <definedName name="solver_rhs1" localSheetId="2" hidden="1">binary</definedName>
-    <definedName name="solver_rhs1" localSheetId="3" hidden="1">Integer</definedName>
-    <definedName name="solver_rhs2" localSheetId="2" hidden="1">Q6_data!#REF!</definedName>
-    <definedName name="solver_rhs2" localSheetId="3" hidden="1">Q7_data!#REF!</definedName>
-    <definedName name="solver_rhs3" localSheetId="2" hidden="1">Q6_data!#REF!</definedName>
-    <definedName name="solver_rhs3" localSheetId="3" hidden="1">Q7_data!#REF!</definedName>
-    <definedName name="solver_rhs4" localSheetId="2" hidden="1">binary</definedName>
-    <definedName name="solver_rhs4" localSheetId="3" hidden="1">Q7_data!#REF!</definedName>
-    <definedName name="solver_rhs5" localSheetId="2" hidden="1">Q6_data!#REF!</definedName>
-    <definedName name="solver_rhs5" localSheetId="3" hidden="1">Q7_data!#REF!</definedName>
-    <definedName name="solver_rhs6" localSheetId="2" hidden="1">Q6_data!#REF!</definedName>
-    <definedName name="solver_rhs6" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rhs7" localSheetId="3" hidden="1">[1]!Integer</definedName>
-    <definedName name="solver_rhs8" localSheetId="3" hidden="1">Q7_data!#REF!</definedName>
+    <definedName name="solver_rel5" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel6" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel6" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel7" localSheetId="4" hidden="1">4</definedName>
+    <definedName name="solver_rel8" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_reo" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rep" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rhs0" localSheetId="4" hidden="1">Q7_data!#REF!</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">binary</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">Integer</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">Q6_data!#REF!</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">Q7_data!#REF!</definedName>
+    <definedName name="solver_rhs3" localSheetId="3" hidden="1">Q6_data!#REF!</definedName>
+    <definedName name="solver_rhs3" localSheetId="4" hidden="1">Q7_data!#REF!</definedName>
+    <definedName name="solver_rhs4" localSheetId="3" hidden="1">binary</definedName>
+    <definedName name="solver_rhs4" localSheetId="4" hidden="1">Q7_data!#REF!</definedName>
+    <definedName name="solver_rhs5" localSheetId="3" hidden="1">Q6_data!#REF!</definedName>
+    <definedName name="solver_rhs5" localSheetId="4" hidden="1">Q7_data!#REF!</definedName>
+    <definedName name="solver_rhs6" localSheetId="3" hidden="1">Q6_data!#REF!</definedName>
+    <definedName name="solver_rhs6" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rhs7" localSheetId="4" hidden="1">[1]!Integer</definedName>
+    <definedName name="solver_rhs8" localSheetId="4" hidden="1">Q7_data!#REF!</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
-    <definedName name="solver_std" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_std" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="2" hidden="1">30</definedName>
-    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1" concurrentCalc="0"/>
   <extLst>
@@ -202,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>A</t>
   </si>
@@ -311,7 +312,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -319,12 +320,166 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -354,6 +509,26 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -691,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514ACDE3-D9CB-4AB7-A1B6-4188291F3DF7}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -831,6 +1006,218 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D70E93-6AF4-409C-ACD1-901E493F1619}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="15">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16">
+        <v>5</v>
+      </c>
+      <c r="G1" s="16">
+        <v>6</v>
+      </c>
+      <c r="H1" s="16">
+        <v>7</v>
+      </c>
+      <c r="I1" s="16">
+        <v>8</v>
+      </c>
+      <c r="J1" s="16">
+        <v>9</v>
+      </c>
+      <c r="K1" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20">
+        <v>1</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="21"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="24"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="24"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="24"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="23">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="24"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="24"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="24"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="24"/>
+    </row>
+    <row r="11" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB826A5C-6B05-45D5-8600-0053CA1D0D2B}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -1042,7 +1429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1D8078-753D-4875-A9D2-4BF7CDDFAEDA}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -1133,7 +1520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE8124D-14F3-46DB-83C6-E21D13EA9132}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>

--- a/Uber_Minicase/Uber_Dispatching_Data.xlsx
+++ b/Uber_Minicase/Uber_Dispatching_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Dropbox\Academic\INSEAD\Teaching\2021\ARM_FBL_March\Cases\Uber Minicase\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniancu/Dropbox/Academic/INSEAD/Teaching/2021/ARM_FBL_March/airm/Uber_Minicase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C6ABA0-DAF0-41FA-92ED-6614665A1F4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A32DCC-096B-8A44-995E-9D2340D9975C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41900" yWindow="1400" windowWidth="34850" windowHeight="19360" tabRatio="850" activeTab="1" xr2:uid="{33A83AC2-AE54-4FD9-B8E6-EA6E160DC162}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="850" activeTab="1" xr2:uid="{33A83AC2-AE54-4FD9-B8E6-EA6E160DC162}"/>
   </bookViews>
   <sheets>
     <sheet name="Drivers" sheetId="45" r:id="rId1"/>
@@ -269,9 +269,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -312,7 +319,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -320,215 +327,45 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -870,15 +707,15 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -889,7 +726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -900,7 +737,7 @@
         <v>1.2147984504699707</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -911,7 +748,7 @@
         <v>1.4424169063568115</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -922,7 +759,7 @@
         <v>0.10475254058837891</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -933,7 +770,7 @@
         <v>0.58969902992248535</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -944,7 +781,7 @@
         <v>0.66954946517944336</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -955,7 +792,7 @@
         <v>1.8261916637420654</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -966,7 +803,7 @@
         <v>1.1778659820556641</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -977,7 +814,7 @@
         <v>0.81998562812805176</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -988,7 +825,7 @@
         <v>1.892519474029541</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1010,207 +847,207 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="15"/>
       <c r="B1" s="15">
         <v>1</v>
       </c>
-      <c r="C1" s="16">
+      <c r="C1" s="15">
         <v>2</v>
       </c>
-      <c r="D1" s="16">
+      <c r="D1" s="15">
         <v>3</v>
       </c>
-      <c r="E1" s="16">
+      <c r="E1" s="15">
         <v>4</v>
       </c>
-      <c r="F1" s="16">
+      <c r="F1" s="15">
         <v>5</v>
       </c>
-      <c r="G1" s="16">
+      <c r="G1" s="15">
         <v>6</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="15">
         <v>7</v>
       </c>
-      <c r="I1" s="16">
+      <c r="I1" s="15">
         <v>8</v>
       </c>
-      <c r="J1" s="16">
+      <c r="J1" s="15">
         <v>9</v>
       </c>
-      <c r="K1" s="17">
+      <c r="K1" s="15">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20">
-        <v>1</v>
-      </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="24"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15">
+        <v>1</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15">
+        <v>1</v>
+      </c>
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="24"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="22" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15">
+        <v>1</v>
+      </c>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="24"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="22" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15">
+        <v>1</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="23">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="24"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="22" t="s">
+      <c r="B7" s="15">
+        <v>1</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="24"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="22" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15">
+        <v>1</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="24"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="22" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="24"/>
-    </row>
-    <row r="11" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="25" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="28"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1225,18 +1062,18 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.54296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="13.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -1253,7 +1090,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1270,7 +1107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1287,7 +1124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1304,7 +1141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1321,7 +1158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1338,7 +1175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1355,7 +1192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1372,7 +1209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1389,7 +1226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1406,7 +1243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1437,16 +1274,16 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -1463,7 +1300,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1480,7 +1317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1497,7 +1334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1531,19 +1368,19 @@
       <selection activeCell="D40" sqref="D40:E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.36328125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" style="8" customWidth="1"/>
-    <col min="3" max="9" width="8.81640625" style="8"/>
-    <col min="10" max="10" width="9.81640625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="8.1796875" style="8" customWidth="1"/>
-    <col min="12" max="12" width="13.81640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="8" customWidth="1"/>
+    <col min="3" max="9" width="8.83203125" style="8"/>
+    <col min="10" max="10" width="9.83203125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" style="8" customWidth="1"/>
     <col min="13" max="13" width="13" style="8" customWidth="1"/>
-    <col min="14" max="16384" width="8.81640625" style="8"/>
+    <col min="14" max="16384" width="8.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>18</v>
       </c>
@@ -1580,7 +1417,7 @@
       <c r="N1" s="9"/>
       <c r="O1" s="10"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1617,7 +1454,7 @@
       <c r="N2" s="9"/>
       <c r="O2" s="10"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1654,7 +1491,7 @@
       <c r="N3" s="9"/>
       <c r="O3" s="10"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1691,7 +1528,7 @@
       <c r="N4" s="9"/>
       <c r="O4" s="10"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1728,7 +1565,7 @@
       <c r="N5" s="9"/>
       <c r="O5" s="10"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1765,7 +1602,7 @@
       <c r="N6" s="9"/>
       <c r="O6" s="10"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -1802,7 +1639,7 @@
       <c r="N7" s="9"/>
       <c r="O7" s="10"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -1839,7 +1676,7 @@
       <c r="N8" s="9"/>
       <c r="O8" s="10"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -1876,7 +1713,7 @@
       <c r="N9" s="9"/>
       <c r="O9" s="10"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -1891,39 +1728,39 @@
       <c r="N10" s="9"/>
       <c r="O10" s="10"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N11" s="9"/>
       <c r="O11" s="10"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N12" s="9"/>
       <c r="O12" s="10"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N13" s="9"/>
       <c r="O13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N14" s="9"/>
       <c r="O14" s="10"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N15" s="9"/>
       <c r="O15" s="10"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="N16" s="9"/>
       <c r="O16" s="10"/>
     </row>
-    <row r="17" spans="14:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N17" s="9"/>
       <c r="O17" s="10"/>
     </row>
-    <row r="18" spans="14:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N18" s="9"/>
       <c r="O18" s="10"/>
     </row>
-    <row r="19" spans="14:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="14:15" x14ac:dyDescent="0.2">
       <c r="N19" s="9"/>
       <c r="O19" s="10"/>
     </row>

--- a/Uber_Minicase/Uber_Dispatching_Data.xlsx
+++ b/Uber_Minicase/Uber_Dispatching_Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniancu/Dropbox/Academic/INSEAD/Teaching/2021/ARM_FBL_March/airm/Uber_Minicase/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniancu/Dropbox/Academic/INSEAD/Teaching/2021/ARM_FBL_March/Cases/Uber Minicase/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A32DCC-096B-8A44-995E-9D2340D9975C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0E8ED4-7F3B-7045-9E01-D138EC5E0AA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="850" activeTab="1" xr2:uid="{33A83AC2-AE54-4FD9-B8E6-EA6E160DC162}"/>
   </bookViews>
@@ -847,7 +847,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -889,49 +889,103 @@
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
+      <c r="B2" s="15">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0</v>
+      </c>
       <c r="D2" s="15">
         <v>1</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="E2" s="15">
+        <v>0</v>
+      </c>
+      <c r="F2" s="15">
+        <v>0</v>
+      </c>
+      <c r="G2" s="15">
+        <v>0</v>
+      </c>
+      <c r="H2" s="15">
+        <v>0</v>
+      </c>
+      <c r="I2" s="15">
+        <v>0</v>
+      </c>
+      <c r="J2" s="15">
+        <v>0</v>
+      </c>
+      <c r="K2" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="B3" s="15">
+        <v>0</v>
+      </c>
+      <c r="C3" s="15">
+        <v>0</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0</v>
+      </c>
+      <c r="F3" s="15">
+        <v>0</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15">
+        <v>0</v>
+      </c>
       <c r="J3" s="15">
         <v>1</v>
       </c>
-      <c r="K3" s="15"/>
+      <c r="K3" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
+      <c r="B4" s="15">
+        <v>0</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15">
+        <v>0</v>
+      </c>
+      <c r="J4" s="15">
+        <v>0</v>
+      </c>
       <c r="K4" s="15">
         <v>1</v>
       </c>
@@ -940,35 +994,71 @@
       <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="B5" s="15">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0</v>
+      </c>
       <c r="I5" s="15">
         <v>1</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="B6" s="15">
+        <v>0</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
       <c r="G6" s="15">
         <v>1</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="H6" s="15">
+        <v>0</v>
+      </c>
+      <c r="I6" s="15">
+        <v>0</v>
+      </c>
+      <c r="J6" s="15">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
@@ -977,77 +1067,173 @@
       <c r="B7" s="15">
         <v>1</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
+      <c r="C7" s="15">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0</v>
+      </c>
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
+      <c r="B8" s="15">
+        <v>0</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0</v>
+      </c>
+      <c r="E8" s="15">
+        <v>0</v>
+      </c>
       <c r="F8" s="15">
         <v>1</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0</v>
+      </c>
+      <c r="I8" s="15">
+        <v>0</v>
+      </c>
+      <c r="J8" s="15">
+        <v>0</v>
+      </c>
+      <c r="K8" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
+      <c r="B9" s="15">
+        <v>0</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0</v>
+      </c>
+      <c r="K9" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
+      <c r="B10" s="15">
+        <v>0</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <v>0</v>
+      </c>
+      <c r="I10" s="15">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15">
+        <v>0</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
+      <c r="B11" s="15">
+        <v>0</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0</v>
+      </c>
+      <c r="D11" s="15">
+        <v>0</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0</v>
+      </c>
+      <c r="H11" s="15">
+        <v>0</v>
+      </c>
+      <c r="I11" s="15">
+        <v>0</v>
+      </c>
+      <c r="J11" s="15">
+        <v>0</v>
+      </c>
+      <c r="K11" s="15">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Uber_Minicase/Uber_Dispatching_Data.xlsx
+++ b/Uber_Minicase/Uber_Dispatching_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniancu/Dropbox/Academic/INSEAD/Teaching/2021/ARM_FBL_March/Cases/Uber Minicase/Python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Dropbox\Academic\INSEAD\Teaching\2021\ARM_FBL_March\Cases\Uber Minicase\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0E8ED4-7F3B-7045-9E01-D138EC5E0AA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055F887A-7913-4188-812B-59E50D53DBFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="850" activeTab="1" xr2:uid="{33A83AC2-AE54-4FD9-B8E6-EA6E160DC162}"/>
+    <workbookView xWindow="39820" yWindow="1990" windowWidth="34850" windowHeight="19360" tabRatio="850" activeTab="1" xr2:uid="{33A83AC2-AE54-4FD9-B8E6-EA6E160DC162}"/>
   </bookViews>
   <sheets>
     <sheet name="Drivers" sheetId="45" r:id="rId1"/>
@@ -707,15 +707,15 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="9.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -726,7 +726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -737,7 +737,7 @@
         <v>1.2147984504699707</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -748,7 +748,7 @@
         <v>1.4424169063568115</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -759,7 +759,7 @@
         <v>0.10475254058837891</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -770,7 +770,7 @@
         <v>0.58969902992248535</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -781,7 +781,7 @@
         <v>0.66954946517944336</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -792,7 +792,7 @@
         <v>1.8261916637420654</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -803,7 +803,7 @@
         <v>1.1778659820556641</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -814,7 +814,7 @@
         <v>0.81998562812805176</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -825,7 +825,7 @@
         <v>1.892519474029541</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -847,12 +847,12 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="15"/>
       <c r="B1" s="15">
         <v>1</v>
@@ -885,7 +885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
@@ -990,7 +990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
@@ -1060,12 +1060,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="15">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="15">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="15">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
         <v>7</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
         <v>8</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
         <v>9</v>
       </c>
@@ -1248,18 +1248,18 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="13.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -1460,16 +1460,16 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="15.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1554,19 +1554,19 @@
       <selection activeCell="D40" sqref="D40:E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="8" customWidth="1"/>
-    <col min="3" max="9" width="8.83203125" style="8"/>
-    <col min="10" max="10" width="9.83203125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="8.1640625" style="8" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="7.36328125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" style="8" customWidth="1"/>
+    <col min="3" max="9" width="8.81640625" style="8"/>
+    <col min="10" max="10" width="9.81640625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="8.1796875" style="8" customWidth="1"/>
+    <col min="12" max="12" width="13.81640625" style="8" customWidth="1"/>
     <col min="13" max="13" width="13" style="8" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="8"/>
+    <col min="14" max="16384" width="8.81640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>18</v>
       </c>
@@ -1603,7 +1603,7 @@
       <c r="N1" s="9"/>
       <c r="O1" s="10"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1640,7 +1640,7 @@
       <c r="N2" s="9"/>
       <c r="O2" s="10"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1677,7 +1677,7 @@
       <c r="N3" s="9"/>
       <c r="O3" s="10"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1714,7 +1714,7 @@
       <c r="N4" s="9"/>
       <c r="O4" s="10"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1751,7 +1751,7 @@
       <c r="N5" s="9"/>
       <c r="O5" s="10"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1788,7 +1788,7 @@
       <c r="N6" s="9"/>
       <c r="O6" s="10"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -1825,7 +1825,7 @@
       <c r="N7" s="9"/>
       <c r="O7" s="10"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -1862,7 +1862,7 @@
       <c r="N8" s="9"/>
       <c r="O8" s="10"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -1899,7 +1899,7 @@
       <c r="N9" s="9"/>
       <c r="O9" s="10"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -1914,39 +1914,39 @@
       <c r="N10" s="9"/>
       <c r="O10" s="10"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="N11" s="9"/>
       <c r="O11" s="10"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="N12" s="9"/>
       <c r="O12" s="10"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="N13" s="9"/>
       <c r="O13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="N14" s="9"/>
       <c r="O14" s="10"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="N15" s="9"/>
       <c r="O15" s="10"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="N16" s="9"/>
       <c r="O16" s="10"/>
     </row>
-    <row r="17" spans="14:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N17" s="9"/>
       <c r="O17" s="10"/>
     </row>
-    <row r="18" spans="14:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N18" s="9"/>
       <c r="O18" s="10"/>
     </row>
-    <row r="19" spans="14:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N19" s="9"/>
       <c r="O19" s="10"/>
     </row>

--- a/Uber_Minicase/Uber_Dispatching_Data.xlsx
+++ b/Uber_Minicase/Uber_Dispatching_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Dropbox\Academic\INSEAD\Teaching\2021\ARM_FBL_March\Cases\Uber Minicase\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055F887A-7913-4188-812B-59E50D53DBFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A87997-2498-44F8-BF41-C7E80506AFB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39820" yWindow="1990" windowWidth="34850" windowHeight="19360" tabRatio="850" activeTab="1" xr2:uid="{33A83AC2-AE54-4FD9-B8E6-EA6E160DC162}"/>
+    <workbookView xWindow="48530" yWindow="710" windowWidth="27100" windowHeight="19360" tabRatio="850" xr2:uid="{33A83AC2-AE54-4FD9-B8E6-EA6E160DC162}"/>
   </bookViews>
   <sheets>
     <sheet name="Drivers" sheetId="45" r:id="rId1"/>
@@ -703,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514ACDE3-D9CB-4AB7-A1B6-4188291F3DF7}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -846,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D70E93-6AF4-409C-ACD1-901E493F1619}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="15">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="15">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="15">
         <v>0</v>
@@ -1245,7 +1245,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1409,7 +1409,7 @@
         <v>2.417209107565478</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1426,7 +1426,7 @@
         <v>0.9</v>
       </c>
       <c r="E10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -1443,7 +1443,7 @@
         <v>2.1150589792789201</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Uber_Minicase/Uber_Dispatching_Data.xlsx
+++ b/Uber_Minicase/Uber_Dispatching_Data.xlsx
@@ -8,181 +8,135 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Dropbox\Academic\INSEAD\Teaching\2021\ARM_FBL_March\Cases\Uber Minicase\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A87997-2498-44F8-BF41-C7E80506AFB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BC40B3-1319-48FD-91FE-7917B6CF1C30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48530" yWindow="710" windowWidth="27100" windowHeight="19360" tabRatio="850" xr2:uid="{33A83AC2-AE54-4FD9-B8E6-EA6E160DC162}"/>
+    <workbookView xWindow="48530" yWindow="710" windowWidth="27100" windowHeight="19360" tabRatio="850" activeTab="3" xr2:uid="{33A83AC2-AE54-4FD9-B8E6-EA6E160DC162}"/>
   </bookViews>
   <sheets>
     <sheet name="Drivers" sheetId="45" r:id="rId1"/>
     <sheet name="Josephines_Match" sheetId="47" r:id="rId2"/>
     <sheet name="Riders" sheetId="46" r:id="rId3"/>
-    <sheet name="Q6_data" sheetId="42" r:id="rId4"/>
-    <sheet name="Q7_data" sheetId="43" r:id="rId5"/>
+    <sheet name="Q6_data" sheetId="43" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="3" hidden="1">Q6_data!#REF!,Q6_data!#REF!</definedName>
-    <definedName name="solver_adj" localSheetId="4" hidden="1">Q7_data!#REF!</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">Q6_data!#REF!</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_drv" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_ibd" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_ibd" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs0" localSheetId="4" hidden="1">Q7_data!#REF!</definedName>
+    <definedName name="solver_lhs0" localSheetId="3" hidden="1">Q6_data!#REF!</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">Q6_data!#REF!</definedName>
-    <definedName name="solver_lhs1" localSheetId="4" hidden="1">Q7_data!#REF!</definedName>
     <definedName name="solver_lhs2" localSheetId="3" hidden="1">Q6_data!#REF!</definedName>
-    <definedName name="solver_lhs2" localSheetId="4" hidden="1">Q7_data!#REF!</definedName>
     <definedName name="solver_lhs3" localSheetId="3" hidden="1">Q6_data!#REF!</definedName>
-    <definedName name="solver_lhs3" localSheetId="4" hidden="1">Q7_data!#REF!</definedName>
     <definedName name="solver_lhs4" localSheetId="3" hidden="1">Q6_data!#REF!</definedName>
-    <definedName name="solver_lhs4" localSheetId="4" hidden="1">Q7_data!#REF!</definedName>
     <definedName name="solver_lhs5" localSheetId="3" hidden="1">Q6_data!#REF!</definedName>
-    <definedName name="solver_lhs5" localSheetId="4" hidden="1">Q7_data!#REF!</definedName>
     <definedName name="solver_lhs6" localSheetId="3" hidden="1">Q6_data!#REF!</definedName>
-    <definedName name="solver_lhs6" localSheetId="4" hidden="1">Q7_data!#REF!</definedName>
-    <definedName name="solver_lhs7" localSheetId="4" hidden="1">Q7_data!#REF!</definedName>
-    <definedName name="solver_lhs8" localSheetId="4" hidden="1">Q7_data!#REF!</definedName>
-    <definedName name="solver_lin" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_lva" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_lhs7" localSheetId="3" hidden="1">Q6_data!#REF!</definedName>
+    <definedName name="solver_lhs8" localSheetId="3" hidden="1">Q6_data!#REF!</definedName>
+    <definedName name="solver_lin" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_lva" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_num" localSheetId="3" hidden="1">6</definedName>
-    <definedName name="solver_num" localSheetId="4" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">4</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_ofx" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_ofx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Drivers!#REF!</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">Q6_data!#REF!</definedName>
-    <definedName name="solver_opt" localSheetId="4" hidden="1">Q7_data!#REF!</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">Riders!#REF!</definedName>
-    <definedName name="solver_piv" localSheetId="4" hidden="1">0.000001</definedName>
+    <definedName name="solver_piv" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="3" hidden="1">0.0001</definedName>
-    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
-    <definedName name="solver_pro" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_pro" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rbv" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_red" localSheetId="4" hidden="1">0.000001</definedName>
-    <definedName name="solver_rel0" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="3" hidden="1">5</definedName>
-    <definedName name="solver_rel1" localSheetId="4" hidden="1">4</definedName>
+    <definedName name="solver_red" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_rel0" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">4</definedName>
     <definedName name="solver_rel2" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rel3" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel4" localSheetId="3" hidden="1">5</definedName>
-    <definedName name="solver_rel4" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rel5" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_rel6" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rel6" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rel7" localSheetId="4" hidden="1">4</definedName>
-    <definedName name="solver_rel8" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_reo" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_rep" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_rhs0" localSheetId="4" hidden="1">Q7_data!#REF!</definedName>
-    <definedName name="solver_rhs1" localSheetId="3" hidden="1">binary</definedName>
-    <definedName name="solver_rhs1" localSheetId="4" hidden="1">Integer</definedName>
+    <definedName name="solver_rel6" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel7" localSheetId="3" hidden="1">4</definedName>
+    <definedName name="solver_rel8" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_reo" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rep" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rhs0" localSheetId="3" hidden="1">Q6_data!#REF!</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">Integer</definedName>
     <definedName name="solver_rhs2" localSheetId="3" hidden="1">Q6_data!#REF!</definedName>
-    <definedName name="solver_rhs2" localSheetId="4" hidden="1">Q7_data!#REF!</definedName>
     <definedName name="solver_rhs3" localSheetId="3" hidden="1">Q6_data!#REF!</definedName>
-    <definedName name="solver_rhs3" localSheetId="4" hidden="1">Q7_data!#REF!</definedName>
-    <definedName name="solver_rhs4" localSheetId="3" hidden="1">binary</definedName>
-    <definedName name="solver_rhs4" localSheetId="4" hidden="1">Q7_data!#REF!</definedName>
+    <definedName name="solver_rhs4" localSheetId="3" hidden="1">Q6_data!#REF!</definedName>
     <definedName name="solver_rhs5" localSheetId="3" hidden="1">Q6_data!#REF!</definedName>
-    <definedName name="solver_rhs5" localSheetId="4" hidden="1">Q7_data!#REF!</definedName>
-    <definedName name="solver_rhs6" localSheetId="3" hidden="1">Q6_data!#REF!</definedName>
-    <definedName name="solver_rhs6" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rhs7" localSheetId="4" hidden="1">[1]!Integer</definedName>
-    <definedName name="solver_rhs8" localSheetId="4" hidden="1">Q7_data!#REF!</definedName>
+    <definedName name="solver_rhs6" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rhs7" localSheetId="3" hidden="1">[1]!Integer</definedName>
+    <definedName name="solver_rhs8" localSheetId="3" hidden="1">Q6_data!#REF!</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
-    <definedName name="solver_std" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_std" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="3" hidden="1">30</definedName>
-    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1" concurrentCalc="0"/>
@@ -203,7 +157,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>A</t>
   </si>
@@ -266,9 +220,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -332,7 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -343,7 +294,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -703,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514ACDE3-D9CB-4AB7-A1B6-4188291F3DF7}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -853,385 +803,385 @@
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15">
-        <v>1</v>
-      </c>
-      <c r="C1" s="15">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14">
         <v>2</v>
       </c>
-      <c r="D1" s="15">
+      <c r="D1" s="14">
         <v>3</v>
       </c>
-      <c r="E1" s="15">
+      <c r="E1" s="14">
         <v>4</v>
       </c>
-      <c r="F1" s="15">
+      <c r="F1" s="14">
         <v>5</v>
       </c>
-      <c r="G1" s="15">
+      <c r="G1" s="14">
         <v>6</v>
       </c>
-      <c r="H1" s="15">
+      <c r="H1" s="14">
         <v>7</v>
       </c>
-      <c r="I1" s="15">
+      <c r="I1" s="14">
         <v>8</v>
       </c>
-      <c r="J1" s="15">
+      <c r="J1" s="14">
         <v>9</v>
       </c>
-      <c r="K1" s="15">
+      <c r="K1" s="14">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="15">
-        <v>0</v>
-      </c>
-      <c r="C2" s="15">
-        <v>0</v>
-      </c>
-      <c r="D2" s="15">
-        <v>1</v>
-      </c>
-      <c r="E2" s="15">
-        <v>0</v>
-      </c>
-      <c r="F2" s="15">
-        <v>0</v>
-      </c>
-      <c r="G2" s="15">
-        <v>0</v>
-      </c>
-      <c r="H2" s="15">
-        <v>0</v>
-      </c>
-      <c r="I2" s="15">
-        <v>0</v>
-      </c>
-      <c r="J2" s="15">
-        <v>0</v>
-      </c>
-      <c r="K2" s="15">
+      <c r="A2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0</v>
+      </c>
+      <c r="D2" s="14">
+        <v>1</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0</v>
+      </c>
+      <c r="F2" s="14">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14">
+        <v>0</v>
+      </c>
+      <c r="H2" s="14">
+        <v>0</v>
+      </c>
+      <c r="I2" s="14">
+        <v>0</v>
+      </c>
+      <c r="J2" s="14">
+        <v>0</v>
+      </c>
+      <c r="K2" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="15">
-        <v>0</v>
-      </c>
-      <c r="C3" s="15">
-        <v>0</v>
-      </c>
-      <c r="D3" s="15">
-        <v>0</v>
-      </c>
-      <c r="E3" s="15">
-        <v>0</v>
-      </c>
-      <c r="F3" s="15">
-        <v>0</v>
-      </c>
-      <c r="G3" s="15">
-        <v>0</v>
-      </c>
-      <c r="H3" s="15">
-        <v>0</v>
-      </c>
-      <c r="I3" s="15">
-        <v>0</v>
-      </c>
-      <c r="J3" s="15">
-        <v>1</v>
-      </c>
-      <c r="K3" s="15">
+      <c r="A3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14">
+        <v>0</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
+        <v>1</v>
+      </c>
+      <c r="K3" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="15">
-        <v>0</v>
-      </c>
-      <c r="C4" s="15">
-        <v>0</v>
-      </c>
-      <c r="D4" s="15">
-        <v>0</v>
-      </c>
-      <c r="E4" s="15">
-        <v>0</v>
-      </c>
-      <c r="F4" s="15">
-        <v>0</v>
-      </c>
-      <c r="G4" s="15">
-        <v>0</v>
-      </c>
-      <c r="H4" s="15">
-        <v>0</v>
-      </c>
-      <c r="I4" s="15">
-        <v>0</v>
-      </c>
-      <c r="J4" s="15">
-        <v>0</v>
-      </c>
-      <c r="K4" s="15">
+      <c r="B4" s="14">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0</v>
+      </c>
+      <c r="K4" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="15">
-        <v>0</v>
-      </c>
-      <c r="C5" s="15">
-        <v>0</v>
-      </c>
-      <c r="D5" s="15">
-        <v>0</v>
-      </c>
-      <c r="E5" s="15">
-        <v>0</v>
-      </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-      <c r="G5" s="15">
-        <v>0</v>
-      </c>
-      <c r="H5" s="15">
-        <v>0</v>
-      </c>
-      <c r="I5" s="15">
-        <v>1</v>
-      </c>
-      <c r="J5" s="15">
-        <v>0</v>
-      </c>
-      <c r="K5" s="15">
+      <c r="B5" s="14">
+        <v>0</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
+        <v>1</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0</v>
+      </c>
+      <c r="K5" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="15">
-        <v>0</v>
-      </c>
-      <c r="C6" s="15">
-        <v>0</v>
-      </c>
-      <c r="D6" s="15">
-        <v>0</v>
-      </c>
-      <c r="E6" s="15">
-        <v>0</v>
-      </c>
-      <c r="F6" s="15">
-        <v>0</v>
-      </c>
-      <c r="G6" s="15">
-        <v>1</v>
-      </c>
-      <c r="H6" s="15">
-        <v>0</v>
-      </c>
-      <c r="I6" s="15">
-        <v>0</v>
-      </c>
-      <c r="J6" s="15">
-        <v>0</v>
-      </c>
-      <c r="K6" s="15">
+      <c r="B6" s="14">
+        <v>0</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0</v>
+      </c>
+      <c r="K6" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="15">
-        <v>0</v>
-      </c>
-      <c r="C7" s="15">
-        <v>0</v>
-      </c>
-      <c r="D7" s="15">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15">
-        <v>0</v>
-      </c>
-      <c r="F7" s="15">
-        <v>1</v>
-      </c>
-      <c r="G7" s="15">
-        <v>0</v>
-      </c>
-      <c r="H7" s="15">
-        <v>0</v>
-      </c>
-      <c r="I7" s="15">
-        <v>0</v>
-      </c>
-      <c r="J7" s="15">
-        <v>0</v>
-      </c>
-      <c r="K7" s="15">
+      <c r="B7" s="14">
+        <v>0</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0</v>
+      </c>
+      <c r="K7" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="15">
-        <v>0</v>
-      </c>
-      <c r="C8" s="15">
-        <v>0</v>
-      </c>
-      <c r="D8" s="15">
-        <v>0</v>
-      </c>
-      <c r="E8" s="15">
-        <v>1</v>
-      </c>
-      <c r="F8" s="15">
-        <v>0</v>
-      </c>
-      <c r="G8" s="15">
-        <v>0</v>
-      </c>
-      <c r="H8" s="15">
-        <v>0</v>
-      </c>
-      <c r="I8" s="15">
-        <v>0</v>
-      </c>
-      <c r="J8" s="15">
-        <v>0</v>
-      </c>
-      <c r="K8" s="15">
+      <c r="B8" s="14">
+        <v>0</v>
+      </c>
+      <c r="C8" s="14">
+        <v>0</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0</v>
+      </c>
+      <c r="K8" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="15">
-        <v>0</v>
-      </c>
-      <c r="C9" s="15">
-        <v>1</v>
-      </c>
-      <c r="D9" s="15">
-        <v>0</v>
-      </c>
-      <c r="E9" s="15">
-        <v>0</v>
-      </c>
-      <c r="F9" s="15">
-        <v>0</v>
-      </c>
-      <c r="G9" s="15">
-        <v>0</v>
-      </c>
-      <c r="H9" s="15">
-        <v>0</v>
-      </c>
-      <c r="I9" s="15">
-        <v>0</v>
-      </c>
-      <c r="J9" s="15">
-        <v>0</v>
-      </c>
-      <c r="K9" s="15">
+      <c r="B9" s="14">
+        <v>0</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0</v>
+      </c>
+      <c r="K9" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="15">
-        <v>0</v>
-      </c>
-      <c r="C10" s="15">
-        <v>0</v>
-      </c>
-      <c r="D10" s="15">
-        <v>0</v>
-      </c>
-      <c r="E10" s="15">
-        <v>0</v>
-      </c>
-      <c r="F10" s="15">
-        <v>0</v>
-      </c>
-      <c r="G10" s="15">
-        <v>0</v>
-      </c>
-      <c r="H10" s="15">
-        <v>1</v>
-      </c>
-      <c r="I10" s="15">
-        <v>0</v>
-      </c>
-      <c r="J10" s="15">
-        <v>0</v>
-      </c>
-      <c r="K10" s="15">
+      <c r="B10" s="14">
+        <v>0</v>
+      </c>
+      <c r="C10" s="14">
+        <v>0</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0</v>
+      </c>
+      <c r="H10" s="14">
+        <v>1</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0</v>
+      </c>
+      <c r="K10" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="15">
-        <v>1</v>
-      </c>
-      <c r="C11" s="15">
-        <v>0</v>
-      </c>
-      <c r="D11" s="15">
-        <v>0</v>
-      </c>
-      <c r="E11" s="15">
-        <v>0</v>
-      </c>
-      <c r="F11" s="15">
-        <v>0</v>
-      </c>
-      <c r="G11" s="15">
-        <v>0</v>
-      </c>
-      <c r="H11" s="15">
-        <v>0</v>
-      </c>
-      <c r="I11" s="15">
-        <v>0</v>
-      </c>
-      <c r="J11" s="15">
-        <v>0</v>
-      </c>
-      <c r="K11" s="15">
+      <c r="B11" s="14">
+        <v>1</v>
+      </c>
+      <c r="C11" s="14">
+        <v>0</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0</v>
+      </c>
+      <c r="K11" s="14">
         <v>0</v>
       </c>
     </row>
@@ -1269,7 +1219,7 @@
       <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -1453,502 +1403,411 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1D8078-753D-4875-A9D2-4BF7CDDFAEDA}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="15.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.81640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="6">
-        <v>3</v>
-      </c>
-      <c r="C1" s="6">
-        <v>2.8</v>
-      </c>
-      <c r="D1" s="6">
-        <v>2.4</v>
-      </c>
-      <c r="E1" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FE8124D-14F3-46DB-83C6-E21D13EA9132}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40:E40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.36328125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" style="8" customWidth="1"/>
-    <col min="3" max="9" width="8.81640625" style="8"/>
-    <col min="10" max="10" width="9.81640625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="8.1796875" style="8" customWidth="1"/>
-    <col min="12" max="12" width="13.81640625" style="8" customWidth="1"/>
-    <col min="13" max="13" width="13" style="8" customWidth="1"/>
-    <col min="14" max="16384" width="8.81640625" style="8"/>
+    <col min="1" max="1" width="7.36328125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" style="7" customWidth="1"/>
+    <col min="3" max="9" width="8.81640625" style="7"/>
+    <col min="10" max="10" width="9.81640625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="8.1796875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="13.81640625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="13" style="7" customWidth="1"/>
+    <col min="14" max="16384" width="8.81640625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="12">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12">
+      <c r="B1" s="11">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11">
         <v>2</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D1" s="11">
         <v>3</v>
       </c>
-      <c r="E1" s="12">
+      <c r="E1" s="11">
         <v>4</v>
       </c>
-      <c r="F1" s="12">
+      <c r="F1" s="11">
         <v>5</v>
       </c>
-      <c r="G1" s="12">
+      <c r="G1" s="11">
         <v>6</v>
       </c>
-      <c r="H1" s="12">
+      <c r="H1" s="11">
         <v>7</v>
       </c>
-      <c r="I1" s="12">
+      <c r="I1" s="11">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="10"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="9"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="14">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="12">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11">
         <v>3.2</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <v>6.5</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="11">
         <v>7.9</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="11">
         <v>9.1</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="11">
         <v>8.1</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="11">
         <v>10.199999999999999</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="13">
         <v>11</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="11">
         <v>2</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="10"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="9"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="14">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>3.2</v>
       </c>
-      <c r="C3" s="12">
-        <v>0</v>
-      </c>
-      <c r="D3" s="12">
+      <c r="C3" s="11">
+        <v>0</v>
+      </c>
+      <c r="D3" s="11">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>8.1</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <v>6.2</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="11">
         <v>11.9</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="11">
         <v>9.1</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="13">
         <v>13</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="11">
         <v>2</v>
       </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="10"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="9"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="14">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D4" s="12">
-        <v>0</v>
-      </c>
-      <c r="E4" s="12">
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
         <v>2.6</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>2.9</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <v>3.4</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <v>5.3</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="11">
         <v>7.2</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="13">
         <v>23</v>
       </c>
-      <c r="K4" s="12">
-        <v>0</v>
-      </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="10"/>
+      <c r="K4" s="11">
+        <v>0</v>
+      </c>
+      <c r="N4" s="8"/>
+      <c r="O4" s="9"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="14">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>6.5</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>2.6</v>
       </c>
-      <c r="E5" s="12">
-        <v>0</v>
-      </c>
-      <c r="F5" s="12">
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11">
         <v>3.2</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>2.6</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="13">
         <v>11</v>
       </c>
-      <c r="K5" s="12">
-        <v>0</v>
-      </c>
-      <c r="N5" s="9"/>
-      <c r="O5" s="10"/>
+      <c r="K5" s="11">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="O5" s="9"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>7.9</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>8.1</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>2.9</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>3.2</v>
       </c>
-      <c r="F6" s="12">
-        <v>0</v>
-      </c>
-      <c r="G6" s="12">
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>2.8</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <v>4.2</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="13">
         <v>10</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="11">
         <v>4</v>
       </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="10"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="9"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="14">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <v>9.1</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>6.2</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>3.4</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>2.6</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G7" s="12">
-        <v>0</v>
-      </c>
-      <c r="H7" s="12">
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
         <v>3.1</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <v>2.8</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="13">
         <v>15</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="11">
         <v>5</v>
       </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="10"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="9"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <v>8.1</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <v>11.9</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>5.3</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>2.8</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <v>3.1</v>
       </c>
-      <c r="H8" s="12">
-        <v>0</v>
-      </c>
-      <c r="I8" s="12">
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
         <v>2.1</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="13">
         <v>24</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="11">
         <v>2</v>
       </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="10"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="9"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="14">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <v>10.199999999999999</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <v>9.1</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>7.2</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>4.2</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>2.8</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <v>2.1</v>
       </c>
-      <c r="I9" s="12">
-        <v>0</v>
-      </c>
-      <c r="J9" s="14">
+      <c r="I9" s="11">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
         <v>19</v>
       </c>
-      <c r="K9" s="12">
-        <v>0</v>
-      </c>
-      <c r="N9" s="9"/>
-      <c r="O9" s="10"/>
+      <c r="K9" s="11">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8"/>
+      <c r="O9" s="9"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="10"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="9"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="N11" s="9"/>
-      <c r="O11" s="10"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="9"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="N12" s="9"/>
-      <c r="O12" s="10"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="9"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="N13" s="9"/>
-      <c r="O13" s="10"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="9"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="N14" s="9"/>
-      <c r="O14" s="10"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="9"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="N15" s="9"/>
-      <c r="O15" s="10"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="9"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="N16" s="9"/>
-      <c r="O16" s="10"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="9"/>
     </row>
     <row r="17" spans="14:15" x14ac:dyDescent="0.35">
-      <c r="N17" s="9"/>
-      <c r="O17" s="10"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="9"/>
     </row>
     <row r="18" spans="14:15" x14ac:dyDescent="0.35">
-      <c r="N18" s="9"/>
-      <c r="O18" s="10"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="9"/>
     </row>
     <row r="19" spans="14:15" x14ac:dyDescent="0.35">
-      <c r="N19" s="9"/>
-      <c r="O19" s="10"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="9"/>
     </row>
   </sheetData>
   <printOptions headings="1" gridLines="1"/>
